--- a/price.xlsx
+++ b/price.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="130">
   <si>
     <t>УРАЛ 4320</t>
   </si>
@@ -372,9 +372,6 @@
     <t>image_2</t>
   </si>
   <si>
-    <t>img/ural4320_2</t>
-  </si>
-  <si>
     <t>image_3</t>
   </si>
   <si>
@@ -399,10 +396,19 @@
     <t>1995 г. Пробег 38546546. готовы предложить в разбор, цена обсуждается</t>
   </si>
   <si>
-    <t>img/ural4320_3</t>
-  </si>
-  <si>
-    <t>img/ural4320_4</t>
+    <t>img/ural583100_1</t>
+  </si>
+  <si>
+    <t>img/pv-95_1</t>
+  </si>
+  <si>
+    <t>img/kamaz54115N_1</t>
+  </si>
+  <si>
+    <t>img/kamaz43101_1</t>
+  </si>
+  <si>
+    <t>img/gaz330273_1</t>
   </si>
 </sst>
 </file>
@@ -733,7 +739,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +774,7 @@
         <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>115</v>
@@ -777,16 +783,16 @@
         <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -809,19 +815,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
         <v>114</v>
-      </c>
-      <c r="I2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -844,10 +841,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -869,6 +866,9 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -889,6 +889,9 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
+      <c r="H5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -905,6 +908,9 @@
       </c>
       <c r="F6" t="s">
         <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -926,6 +932,9 @@
       <c r="F7" t="s">
         <v>5</v>
       </c>
+      <c r="H7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -946,6 +955,9 @@
       <c r="F8" t="s">
         <v>5</v>
       </c>
+      <c r="H8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -966,6 +978,9 @@
       <c r="F9" t="s">
         <v>5</v>
       </c>
+      <c r="H9" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -985,6 +1000,9 @@
       </c>
       <c r="F10" t="s">
         <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">

--- a/price.xlsx
+++ b/price.xlsx
@@ -739,7 +739,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -739,7 +739,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
